--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="718">
   <si>
     <t>Property</t>
   </si>
@@ -1544,22 +1544,23 @@
     <t>Patient.address.type</t>
   </si>
   <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
+Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>physical</t>
   </si>
   <si>
-    <t>Adressetypen er begrenset til physical (fysisk adresse)</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/lmdi-address-type</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -12752,10 +12753,10 @@
         <v>81</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>81</v>
@@ -12769,9 +12770,7 @@
       <c r="X87" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y87" t="s" s="2">
-        <v>497</v>
-      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
         <v>498</v>
       </c>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="717">
   <si>
     <t>Property</t>
   </si>
@@ -1498,10 +1498,10 @@
 </t>
   </si>
   <si>
-    <t>Real property identification</t>
-  </si>
-  <si>
-    <t>Identification of a real property in Norway is defined using gårdsnummer, bruksnummer and kommunenummer. In addition real property can be rented out, the area of the real property that is rented is measured and is further identified by its festenummer. In addition some real property is split into sections identified by its seksjonsnummer</t>
+    <t>real property identification</t>
+  </si>
+  <si>
+    <t>Additional information identifying norwegian real property.</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -1544,7 +1544,7 @@
     <t>Patient.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
+    <t>physical</t>
   </si>
   <si>
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
@@ -1552,9 +1552,6 @@
   </si>
   <si>
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>physical</t>
   </si>
   <si>
     <t>both</t>
@@ -12487,7 +12484,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12753,10 +12750,10 @@
         <v>81</v>
       </c>
       <c r="S87" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="T87" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>81</v>
@@ -12772,25 +12769,25 @@
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12814,7 +12811,7 @@
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -12822,10 +12819,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12851,16 +12848,16 @@
         <v>148</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -12873,43 +12870,43 @@
         <v>81</v>
       </c>
       <c r="T88" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12924,16 +12921,16 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -12941,10 +12938,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12970,10 +12967,10 @@
         <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12988,43 +12985,43 @@
         <v>81</v>
       </c>
       <c r="T89" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF89" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13039,16 +13036,16 @@
         <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>81</v>
@@ -13056,14 +13053,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13085,10 +13082,10 @@
         <v>148</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13103,43 +13100,43 @@
         <v>81</v>
       </c>
       <c r="T90" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF90" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13154,16 +13151,16 @@
         <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>81</v>
@@ -13171,14 +13168,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13200,13 +13197,13 @@
         <v>148</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13220,43 +13217,43 @@
         <v>81</v>
       </c>
       <c r="T91" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13271,16 +13268,16 @@
         <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>81</v>
@@ -13288,10 +13285,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13317,10 +13314,10 @@
         <v>148</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13403,10 +13400,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13516,13 +13513,13 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C94" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>81</v>
@@ -13544,13 +13541,13 @@
         <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13610,7 +13607,7 @@
         <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>140</v>
@@ -13633,10 +13630,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13662,10 +13659,10 @@
         <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13689,34 +13686,34 @@
         <v>81</v>
       </c>
       <c r="W95" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF95" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13748,14 +13745,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13777,10 +13774,10 @@
         <v>148</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13831,7 +13828,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13846,16 +13843,16 @@
         <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>81</v>
@@ -13863,14 +13860,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13892,10 +13889,10 @@
         <v>148</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13910,43 +13907,43 @@
         <v>81</v>
       </c>
       <c r="T97" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13961,16 +13958,16 @@
         <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>81</v>
@@ -13978,10 +13975,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14007,13 +14004,13 @@
         <v>148</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14063,7 +14060,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -14078,16 +14075,16 @@
         <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>81</v>
@@ -14095,10 +14092,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14124,14 +14121,14 @@
         <v>184</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>81</v>
@@ -14144,43 +14141,43 @@
         <v>81</v>
       </c>
       <c r="T99" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF99" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14195,16 +14192,16 @@
         <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>81</v>
@@ -14212,10 +14209,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14241,14 +14238,14 @@
         <v>172</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>81</v>
@@ -14276,11 +14273,11 @@
         <v>235</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14297,7 +14294,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14312,16 +14309,16 @@
         <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL100" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AL100" t="s" s="2">
+      <c r="AM100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>81</v>
@@ -14329,10 +14326,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14355,19 +14352,19 @@
         <v>81</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>81</v>
@@ -14416,7 +14413,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14431,7 +14428,7 @@
         <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>152</v>
@@ -14440,7 +14437,7 @@
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>81</v>
@@ -14448,10 +14445,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14474,19 +14471,19 @@
         <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14535,7 +14532,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14550,7 +14547,7 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>152</v>
@@ -14559,7 +14556,7 @@
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -14567,10 +14564,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14593,19 +14590,19 @@
         <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>81</v>
@@ -14654,7 +14651,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14666,10 +14663,10 @@
         <v>81</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AK103" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>152</v>
@@ -14686,10 +14683,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14801,10 +14798,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14918,14 +14915,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14947,10 +14944,10 @@
         <v>134</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>195</v>
@@ -15005,7 +15002,7 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15037,10 +15034,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15066,14 +15063,14 @@
         <v>172</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>81</v>
@@ -15101,11 +15098,11 @@
         <v>235</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>81</v>
       </c>
@@ -15122,7 +15119,7 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15146,7 +15143,7 @@
         <v>81</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>81</v>
@@ -15154,10 +15151,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15183,14 +15180,14 @@
         <v>408</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>81</v>
@@ -15239,7 +15236,7 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15263,7 +15260,7 @@
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>81</v>
@@ -15271,10 +15268,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15300,13 +15297,13 @@
         <v>417</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>421</v>
@@ -15358,7 +15355,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15382,7 +15379,7 @@
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>81</v>
@@ -15390,10 +15387,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15419,14 +15416,14 @@
         <v>454</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>81</v>
@@ -15475,7 +15472,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15499,7 +15496,7 @@
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>81</v>
@@ -15507,10 +15504,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15536,14 +15533,14 @@
         <v>109</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15592,7 +15589,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15616,7 +15613,7 @@
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>81</v>
@@ -15624,10 +15621,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15653,14 +15650,14 @@
         <v>270</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -15709,7 +15706,7 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15718,13 +15715,13 @@
         <v>89</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>152</v>
@@ -15733,7 +15730,7 @@
         <v>81</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>81</v>
@@ -15741,10 +15738,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15770,10 +15767,10 @@
         <v>184</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15824,7 +15821,7 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15839,7 +15836,7 @@
         <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>152</v>
@@ -15856,10 +15853,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15882,19 +15879,19 @@
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>81</v>
@@ -15943,7 +15940,7 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15958,10 +15955,10 @@
         <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>81</v>
@@ -15975,10 +15972,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16090,10 +16087,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16207,14 +16204,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16236,10 +16233,10 @@
         <v>134</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>195</v>
@@ -16294,7 +16291,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16326,10 +16323,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16355,16 +16352,16 @@
         <v>172</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>81</v>
@@ -16413,7 +16410,7 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>89</v>
@@ -16428,16 +16425,16 @@
         <v>101</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AL118" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="AL118" t="s" s="2">
+      <c r="AM118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>81</v>
@@ -16445,10 +16442,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16474,16 +16471,16 @@
         <v>373</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="N119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>81</v>
@@ -16532,7 +16529,7 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16547,16 +16544,16 @@
         <v>101</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="AL119" t="s" s="2">
+      <c r="AM119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>81</v>
@@ -16564,14 +16561,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16590,16 +16587,16 @@
         <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16649,7 +16646,7 @@
         <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16664,7 +16661,7 @@
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>152</v>
@@ -16673,7 +16670,7 @@
         <v>81</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>81</v>
@@ -16681,10 +16678,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16707,19 +16704,19 @@
         <v>90</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>81</v>
@@ -16768,7 +16765,7 @@
         <v>81</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16783,10 +16780,10 @@
         <v>101</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>81</v>
@@ -16800,10 +16797,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16826,19 +16823,19 @@
         <v>90</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>81</v>
@@ -16887,7 +16884,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16902,7 +16899,7 @@
         <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>152</v>
@@ -16919,10 +16916,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17034,10 +17031,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17151,14 +17148,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17180,10 +17177,10 @@
         <v>134</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>195</v>
@@ -17238,7 +17235,7 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17270,10 +17267,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17296,16 +17293,16 @@
         <v>90</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17355,7 +17352,7 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>89</v>
@@ -17379,7 +17376,7 @@
         <v>81</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>81</v>
@@ -17387,10 +17384,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17416,10 +17413,10 @@
         <v>109</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17449,11 +17446,11 @@
         <v>224</v>
       </c>
       <c r="Y127" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="Z127" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="Z127" t="s" s="2">
-        <v>716</v>
-      </c>
       <c r="AA127" t="s" s="2">
         <v>81</v>
       </c>
@@ -17470,7 +17467,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>89</v>
@@ -17485,7 +17482,7 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>152</v>
